--- a/src/prommis/solvent_extraction/debug_data.xlsx
+++ b/src/prommis/solvent_extraction/debug_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,16 +732,16 @@
         <v>0.07806909567825721</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.3390012751518294</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.3217682663207957</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="3">
@@ -749,49 +749,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.53</v>
+        <v>2.59</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="E3" t="n">
-        <v>87.23</v>
+        <v>16.69</v>
       </c>
       <c r="F3" t="n">
-        <v>36.73</v>
+        <v>6.33</v>
       </c>
       <c r="G3" t="n">
-        <v>30.81</v>
+        <v>3.95</v>
       </c>
       <c r="H3" t="n">
-        <v>93.83</v>
+        <v>16.41</v>
       </c>
       <c r="I3" t="n">
-        <v>6.830853563038374</v>
+        <v>0.4006721882126996</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5805278963173699</v>
+        <v>0.135155332550443</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4452955629426217</v>
+        <v>0.08224882873503385</v>
       </c>
       <c r="L3" t="n">
-        <v>15.20745542949756</v>
+        <v>0.3926306974518483</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8344749752124138</v>
+        <v>-0.3972108021266921</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2361769061138551</v>
+        <v>-0.8691668145487227</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.3513516322865534</v>
+        <v>-1.084870277907271</v>
       </c>
       <c r="P3" t="n">
-        <v>1.182056552292506</v>
+        <v>-0.4060157485139844</v>
       </c>
       <c r="Q3" t="n">
         <v>0.14</v>
@@ -803,64 +803,64 @@
         <v>0.00014</v>
       </c>
       <c r="T3" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="U3" t="n">
-        <v>3.53</v>
+        <v>2.59</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.7662835249042146</v>
       </c>
       <c r="W3" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8725617685305592</v>
+        <v>0.1669500850255077</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5179805387110421</v>
+        <v>0.08926808630658582</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.7069756769160165</v>
+        <v>0.0906379072969252</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.971425613417538</v>
+        <v>0.1698933637022466</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.001366580686813771</v>
+        <v>8.015848518809937e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1884035125251622</v>
+        <v>0.04386307626307254</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3660560299282419</v>
+        <v>0.06761279971899001</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3655335329095979</v>
+        <v>0.009437455637052311</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.8344749752124138</v>
+        <v>-0.3972108021266921</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.2361769061138551</v>
+        <v>-0.8691668145487227</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.3513516322865534</v>
+        <v>-1.084870277907271</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.182056552292506</v>
+        <v>-0.4060157485139844</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3390012751518294</v>
+        <v>1</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.3217682663207957</v>
+        <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="4">
@@ -868,55 +868,55 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.59</v>
+        <v>3.06</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E4" t="n">
-        <v>16.69</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>6.33</v>
+        <v>27.65</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>16.41</v>
+        <v>83.19</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4006721882126996</v>
+        <v>7.045052292839899</v>
       </c>
       <c r="J4" t="n">
-        <v>0.135155332550443</v>
+        <v>0.3821700069108501</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08224882873503385</v>
+        <v>0.06157112526539277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3926306974518483</v>
+        <v>4.948839976204639</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.3972108021266921</v>
+        <v>0.8478842210660318</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.8691668145487227</v>
+        <v>-0.4177433998143392</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.084870277907271</v>
+        <v>-1.21062290922994</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.4060157485139844</v>
+        <v>0.694503410858053</v>
       </c>
       <c r="Q4" t="n">
         <v>0.14</v>
       </c>
       <c r="R4" t="n">
-        <v>5.6e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="S4" t="n">
         <v>0.00014</v>
@@ -925,61 +925,61 @@
         <v>0.00014</v>
       </c>
       <c r="U4" t="n">
-        <v>2.59</v>
+        <v>3.06</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7662835249042146</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="W4" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1669500850255077</v>
+        <v>0.8759627888366509</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08926808630658582</v>
+        <v>0.3899308983218164</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0906379072969252</v>
+        <v>0.1330885727397889</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1698933637022466</v>
+        <v>0.8612692825344238</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.015848518809937e-05</v>
+        <v>0.0014094332885546</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.04386307626307254</v>
+        <v>0.1240287885225186</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06761279971899001</v>
+        <v>0.05061465585671764</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.009437455637052311</v>
+        <v>0.1189526392954287</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.3972108021266921</v>
+        <v>0.8478842210660318</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.8691668145487227</v>
+        <v>-0.4177433998143392</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1.084870277907271</v>
+        <v>-1.21062290922994</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.4060157485139844</v>
+        <v>0.694503410858053</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.3390012751518294</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.3217682663207957</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="5">
@@ -987,118 +987,118 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.06</v>
+        <v>3.54</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="E5" t="n">
-        <v>87.56999999999999</v>
+        <v>88.84999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>27.65</v>
+        <v>31.68</v>
       </c>
       <c r="G5" t="n">
-        <v>5.8</v>
+        <v>13.02</v>
       </c>
       <c r="H5" t="n">
-        <v>83.19</v>
+        <v>80.8</v>
       </c>
       <c r="I5" t="n">
-        <v>7.045052292839899</v>
+        <v>7.968609865470848</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3821700069108501</v>
+        <v>0.4637002341920375</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06157112526539277</v>
+        <v>0.1496895838123707</v>
       </c>
       <c r="L5" t="n">
-        <v>4.948839976204639</v>
+        <v>4.208333333333332</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8478842210660318</v>
+        <v>0.9013825647571406</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4177433998143392</v>
+        <v>-0.3337626847634927</v>
       </c>
       <c r="O5" t="n">
-        <v>-1.21062290922994</v>
+        <v>-0.824808419097144</v>
       </c>
       <c r="P5" t="n">
-        <v>0.694503410858053</v>
+        <v>0.6241101320710364</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="R5" t="n">
-        <v>2.4e-05</v>
+        <v>5.6e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00014</v>
+        <v>6e-05</v>
       </c>
       <c r="T5" t="n">
         <v>0.00014</v>
       </c>
       <c r="U5" t="n">
-        <v>3.06</v>
+        <v>3.54</v>
       </c>
       <c r="V5" t="n">
         <v>0.3831417624521073</v>
       </c>
       <c r="W5" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="X5" t="n">
-        <v>0.8759627888366509</v>
+        <v>0.8887666299889967</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3899308983218164</v>
+        <v>0.4467635030320125</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1330885727397889</v>
+        <v>0.2987608994951813</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8612692825344238</v>
+        <v>0.8365255202401904</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0014094332885546</v>
+        <v>0.001594200233164179</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1240287885225186</v>
+        <v>0.1504884665055953</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.05061465585671764</v>
+        <v>0.1230525954713539</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1189526392954287</v>
+        <v>0.1011534742367731</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.8478842210660318</v>
+        <v>0.9013825647571406</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.4177433998143392</v>
+        <v>-0.3337626847634927</v>
       </c>
       <c r="AH5" t="n">
-        <v>-1.21062290922994</v>
+        <v>-0.824808419097144</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.694503410858053</v>
+        <v>0.6241101320710364</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.2834457195962741</v>
+        <v>1</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.3217682663207957</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="6">
@@ -1106,118 +1106,118 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.54</v>
+        <v>2.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.15</v>
       </c>
       <c r="E6" t="n">
-        <v>88.84999999999999</v>
+        <v>2.53</v>
       </c>
       <c r="F6" t="n">
-        <v>31.68</v>
+        <v>5.3</v>
       </c>
       <c r="G6" t="n">
-        <v>13.02</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>80.8</v>
+        <v>20.34</v>
       </c>
       <c r="I6" t="n">
-        <v>7.968609865470848</v>
+        <v>0.05191340925412948</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4637002341920375</v>
+        <v>0.1119324181626188</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1496895838123707</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="L6" t="n">
-        <v>4.208333333333332</v>
+        <v>0.5106703489831785</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9013825647571406</v>
+        <v>-1.284720449224846</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.3337626847634927</v>
+        <v>-0.9510441137385032</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.824808419097144</v>
+        <v>-1.126744537471562</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6241101320710364</v>
+        <v>-0.2918593578226022</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="R6" t="n">
-        <v>5.6e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="S6" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="T6" t="n">
         <v>6e-05</v>
       </c>
-      <c r="T6" t="n">
-        <v>0.00014</v>
-      </c>
       <c r="U6" t="n">
-        <v>3.54</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.7662835249042146</v>
       </c>
       <c r="W6" t="n">
         <v>0.15</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8887666299889967</v>
+        <v>0.0253075922776833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4467635030320125</v>
+        <v>0.07474263150472429</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2987608994951813</v>
+        <v>0.08260670032124828</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.8365255202401904</v>
+        <v>0.2105808054664044</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001594200233164179</v>
+        <v>1.038579759010332e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1504884665055953</v>
+        <v>0.03632635206860715</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1230525954713539</v>
+        <v>0.061398061575798</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.1011534742367731</v>
+        <v>0.01227471207667816</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9013825647571406</v>
+        <v>-1.284720449224846</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.3337626847634927</v>
+        <v>-0.9510441137385032</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.824808419097144</v>
+        <v>-1.126744537471562</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6241101320710364</v>
+        <v>-0.2918593578226022</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3390012751518294</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.3007998270644183</v>
+        <v>1</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="7">
@@ -1231,49 +1231,49 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E7" t="n">
-        <v>2.53</v>
+        <v>31.68</v>
       </c>
       <c r="F7" t="n">
-        <v>5.3</v>
+        <v>16.14</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>8.69</v>
       </c>
       <c r="H7" t="n">
-        <v>20.34</v>
+        <v>56.6</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05191340925412948</v>
+        <v>0.927400468384075</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1119324181626188</v>
+        <v>0.3849272597185786</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07468879668049792</v>
+        <v>0.1903405979629832</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5106703489831785</v>
+        <v>2.608294930875576</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.284720449224846</v>
+        <v>-0.03273268909951155</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.9510441137385032</v>
+        <v>-0.4146213320175166</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.126744537471562</v>
+        <v>-0.7204685706680604</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.2918593578226022</v>
+        <v>0.4163566973397419</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="R7" t="n">
-        <v>2.4e-05</v>
+        <v>5.6e-05</v>
       </c>
       <c r="S7" t="n">
         <v>0.00014</v>
@@ -1288,55 +1288,55 @@
         <v>0.7662835249042146</v>
       </c>
       <c r="W7" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0253075922776833</v>
+        <v>0.3168950685205562</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07474263150472429</v>
+        <v>0.2276124665068397</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08260670032124828</v>
+        <v>0.1994033960532354</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2105808054664044</v>
+        <v>0.5859819857128067</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.038579759010332e-05</v>
+        <v>0.0001855357544031429</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03632635206860715</v>
+        <v>0.1249236225471904</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.061398061575798</v>
+        <v>0.1564698358188564</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01227471207667816</v>
+        <v>0.06269420057637115</v>
       </c>
       <c r="AF7" t="n">
-        <v>-1.284720449224846</v>
+        <v>-0.03273268909951155</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.9510441137385032</v>
+        <v>-0.4146213320175166</v>
       </c>
       <c r="AH7" t="n">
-        <v>-1.126744537471562</v>
+        <v>-0.7204685706680604</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.2918593578226022</v>
+        <v>0.4163566973397419</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.2834457195962741</v>
+        <v>1</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.3217682663207957</v>
+        <v>1</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="8">
@@ -1344,118 +1344,118 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>3.54</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.35</v>
       </c>
       <c r="E8" t="n">
-        <v>31.68</v>
+        <v>71.67</v>
       </c>
       <c r="F8" t="n">
-        <v>16.14</v>
+        <v>24.71</v>
       </c>
       <c r="G8" t="n">
-        <v>8.69</v>
+        <v>7.61</v>
       </c>
       <c r="H8" t="n">
-        <v>56.6</v>
+        <v>82.72</v>
       </c>
       <c r="I8" t="n">
-        <v>0.927400468384075</v>
+        <v>2.529827038475115</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3849272597185786</v>
+        <v>0.3281976358082083</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1903405979629832</v>
+        <v>0.0823682216690118</v>
       </c>
       <c r="L8" t="n">
-        <v>2.608294930875576</v>
+        <v>4.787037037037036</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.03273268909951155</v>
+        <v>0.4030908299491032</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.4146213320175166</v>
+        <v>-0.483864551738585</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.7204685706680604</v>
+        <v>-1.08424031033867</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4163566973397419</v>
+        <v>0.6800667876069927</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="R8" t="n">
         <v>5.6e-05</v>
       </c>
       <c r="S8" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="T8" t="n">
         <v>0.00014</v>
       </c>
-      <c r="T8" t="n">
-        <v>6e-05</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>3.54</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7662835249042146</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="W8" t="n">
         <v>0.35</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3168950685205562</v>
+        <v>0.7169150745223567</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2276124665068397</v>
+        <v>0.3484698914116486</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1994033960532354</v>
+        <v>0.174621385956861</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5859819857128067</v>
+        <v>0.8564033543845118</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0001855357544031429</v>
+        <v>0.0005061172428679026</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1249236225471904</v>
+        <v>0.1065126891936929</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1564698358188564</v>
+        <v>0.06771094689819081</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.06269420057637115</v>
+        <v>0.1150634679437001</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.03273268909951155</v>
+        <v>0.4030908299491032</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.4146213320175166</v>
+        <v>-0.483864551738585</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.7204685706680604</v>
+        <v>-1.08424031033867</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.4163566973397419</v>
+        <v>0.6800667876069927</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.3390012751518294</v>
+        <v>1</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.3217682663207957</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="9">
@@ -1463,118 +1463,118 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.54</v>
+        <v>3.51</v>
       </c>
       <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64.64</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.223207091055601</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5700334104343356</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4047132379463749</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.656108597285068</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.08749999006073181</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.2440996889906012</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3928525898435821</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5630190870894755</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.7662835249042146</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.3796138841652496</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3127908616556198</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3861863240018357</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.6692204161921523</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0002447148326609277</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1849976503520403</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3326952556254044</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.08787994141837305</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.08749999006073181</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.2440996889906012</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3928525898435821</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.5630190870894755</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="AL9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="E9" t="n">
-        <v>71.67</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.71</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="H9" t="n">
-        <v>82.72</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.529827038475115</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.3281976358082083</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0823682216690118</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.787037037037036</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.4030908299491032</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-0.483864551738585</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-1.08424031033867</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.6800667876069927</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5.6e-05</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6e-05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.00014</v>
-      </c>
-      <c r="U9" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.3831417624521073</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.7169150745223567</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.3484698914116486</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.174621385956861</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.8564033543845118</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.0005061172428679026</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.1065126891936929</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.06771094689819081</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.1150634679437001</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.4030908299491032</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>-0.483864551738585</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>-1.08424031033867</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.6800667876069927</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.2283950617283951</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.3390012751518294</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>-0.3007998270644183</v>
-      </c>
       <c r="AM9" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="10">
@@ -1582,55 +1582,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.15</v>
       </c>
       <c r="E10" t="n">
-        <v>27.08</v>
+        <v>21.44</v>
       </c>
       <c r="F10" t="n">
-        <v>14.39</v>
+        <v>5.44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.17</v>
+        <v>20.9</v>
       </c>
       <c r="H10" t="n">
-        <v>30.73</v>
+        <v>10.65</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3713658804168952</v>
+        <v>0.5458248472505092</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1680878402055835</v>
+        <v>0.1150592216582064</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001702894921366323</v>
+        <v>0.5284450063211125</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4436263894903999</v>
+        <v>0.238388360380526</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.430197999969832</v>
+        <v>-0.2629466980941796</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.7744637031139371</v>
+        <v>-0.939078568175019</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.768812149734826</v>
+        <v>-0.2770002017226414</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.3529826273804605</v>
+        <v>-0.6227149534029253</v>
       </c>
       <c r="Q10" t="n">
         <v>0.14</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4e-05</v>
+        <v>5.6e-05</v>
       </c>
       <c r="S10" t="n">
         <v>6e-05</v>
@@ -1639,61 +1639,61 @@
         <v>0.00014</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.7662835249042146</v>
       </c>
       <c r="W10" t="n">
         <v>0.15</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2708812643793138</v>
+        <v>0.2144643393017905</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2029332957269779</v>
+        <v>0.07671696516711325</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.003900871959614503</v>
+        <v>0.4795777879761358</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3181488766953101</v>
+        <v>0.1102598612692825</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.42954647227987e-05</v>
+        <v>0.0001091977287687366</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.05455093494798618</v>
+        <v>0.03734111942997201</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.001399867876924351</v>
+        <v>0.4344091815579954</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01066321201427402</v>
+        <v>0.005730014464181735</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.430197999969832</v>
+        <v>-0.2629466980941796</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.7744637031139371</v>
+        <v>-0.939078568175019</v>
       </c>
       <c r="AH10" t="n">
-        <v>-2.768812149734826</v>
+        <v>-0.2770002017226414</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.3529826273804605</v>
+        <v>-0.6227149534029253</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.2834457195962741</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.3007998270644183</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="11">
@@ -1701,118 +1701,118 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.51</v>
+        <v>2.51</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E11" t="n">
-        <v>37.95</v>
+        <v>22.9</v>
       </c>
       <c r="F11" t="n">
-        <v>22.18</v>
+        <v>15.2</v>
       </c>
       <c r="G11" t="n">
-        <v>16.83</v>
+        <v>10.46</v>
       </c>
       <c r="H11" t="n">
-        <v>64.64</v>
+        <v>60.66</v>
       </c>
       <c r="I11" t="n">
-        <v>1.223207091055601</v>
+        <v>0.2970168612191958</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5700334104343356</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4047132379463749</v>
+        <v>0.1168192986374805</v>
       </c>
       <c r="L11" t="n">
-        <v>3.656108597285068</v>
+        <v>1.541942043721403</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08749999006073181</v>
+        <v>-0.5272188957110689</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.2440996889906012</v>
+        <v>-0.7465522643119413</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.3928525898435821</v>
+        <v>-0.9324854055161708</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5630190870894755</v>
+        <v>0.1880680503913267</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="R11" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00014</v>
+        <v>6e-05</v>
       </c>
       <c r="T11" t="n">
         <v>6e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>3.51</v>
+        <v>2.51</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7662835249042146</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="W11" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3796138841652496</v>
+        <v>0.2290687206161849</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3127908616556198</v>
+        <v>0.2143562262022282</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3861863240018357</v>
+        <v>0.2400183570445159</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6692204161921523</v>
+        <v>0.6280153224971529</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0002447148326609277</v>
+        <v>5.942119860342244e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1849976503520403</v>
+        <v>0.05817195200876188</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3326952556254044</v>
+        <v>0.09603151757375113</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.08787994141837305</v>
+        <v>0.03706284232732759</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.08749999006073181</v>
+        <v>-0.5272188957110689</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.2440996889906012</v>
+        <v>-0.7465522643119413</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.3928525898435821</v>
+        <v>-0.9324854055161708</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.5630190870894755</v>
+        <v>0.1880680503913267</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.2834457195962741</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.3217682663207957</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="12">
@@ -1820,118 +1820,118 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="E12" t="n">
-        <v>99.38</v>
+        <v>46.8</v>
       </c>
       <c r="F12" t="n">
-        <v>44.25</v>
+        <v>26.03</v>
       </c>
       <c r="G12" t="n">
-        <v>25.13</v>
+        <v>9.59</v>
       </c>
       <c r="H12" t="n">
-        <v>85.06</v>
+        <v>50.93</v>
       </c>
       <c r="I12" t="n">
-        <v>160.290322580644</v>
+        <v>0.8796992481203006</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7937219730941704</v>
+        <v>0.35189941868325</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3356484573260318</v>
+        <v>0.1060723371308484</v>
       </c>
       <c r="L12" t="n">
-        <v>5.693440428380188</v>
+        <v>1.037905033625433</v>
       </c>
       <c r="M12" t="n">
-        <v>2.204907302911257</v>
+        <v>-0.0556657792209242</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1003315966863541</v>
+        <v>-0.4535814505926722</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.474115344535463</v>
+        <v>-0.9743978620727265</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7553747808986245</v>
+        <v>0.01615761819526265</v>
       </c>
       <c r="Q12" t="n">
         <v>0.06</v>
       </c>
       <c r="R12" t="n">
-        <v>5.6e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="S12" t="n">
         <v>0.00014</v>
       </c>
       <c r="T12" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="U12" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
         <v>0.3831417624521073</v>
       </c>
       <c r="W12" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9940982294688406</v>
+        <v>0.4681404421326398</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.624030461147934</v>
+        <v>0.3670850373713158</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5766406608536025</v>
+        <v>0.2200550711335475</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.8806294647479035</v>
+        <v>0.5272802567553577</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.03206768482157649</v>
+        <v>0.0001759926474182923</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2575931469408521</v>
+        <v>0.1142048245330864</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2759204267124888</v>
+        <v>0.08719695826012891</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1368502050750316</v>
+        <v>0.02494757229601127</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.204907302911257</v>
+        <v>-0.0556657792209242</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.1003315966863541</v>
+        <v>-0.4535814505926722</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.474115344535463</v>
+        <v>-0.9743978620727265</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.7553747808986245</v>
+        <v>0.01615761819526265</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.3390012751518294</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.3217682663207957</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="13">
@@ -1939,52 +1939,52 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.15</v>
       </c>
       <c r="E13" t="n">
-        <v>21.44</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>5.44</v>
+        <v>51.9</v>
       </c>
       <c r="G13" t="n">
-        <v>20.9</v>
+        <v>32</v>
       </c>
       <c r="H13" t="n">
-        <v>10.65</v>
+        <v>95.48</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5458248472505092</v>
+        <v>15.55629139072846</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1150592216582064</v>
+        <v>1.079002079002079</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5284450063211125</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L13" t="n">
-        <v>0.238388360380526</v>
+        <v>21.12389380530976</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.2629466980941796</v>
+        <v>1.191906069484436</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.939078568175019</v>
+        <v>0.03302228147462604</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.2770002017226414</v>
+        <v>-0.3273589343863303</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.6227149534029253</v>
+        <v>1.324773975523335</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="R13" t="n">
         <v>5.6e-05</v>
@@ -1993,64 +1993,64 @@
         <v>6e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00014</v>
+        <v>6e-05</v>
       </c>
       <c r="U13" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7662835249042146</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="W13" t="n">
         <v>0.15</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2144643393017905</v>
+        <v>0.9398819645893768</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.07671696516711325</v>
+        <v>0.731913693414187</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.4795777879761358</v>
+        <v>0.7342817806333181</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1102598612692825</v>
+        <v>0.9885081271353142</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0001091977287687366</v>
+        <v>0.003112191935726527</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.03734111942997201</v>
+        <v>0.3501774557183527</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.4344091815579954</v>
+        <v>0.3868479173795377</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.005730014464181735</v>
+        <v>0.5077438212631443</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.2629466980941796</v>
+        <v>1.191906069484436</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.939078568175019</v>
+        <v>0.03302228147462604</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.2770002017226414</v>
+        <v>-0.3273589343863303</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.6227149534029253</v>
+        <v>1.324773975523335</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.3390012751518294</v>
+        <v>1</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.3007998270644183</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="14">
@@ -2064,43 +2064,43 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="E14" t="n">
-        <v>22.9</v>
+        <v>36.14</v>
       </c>
       <c r="F14" t="n">
-        <v>15.2</v>
+        <v>14.11</v>
       </c>
       <c r="G14" t="n">
-        <v>10.46</v>
+        <v>4.89</v>
       </c>
       <c r="H14" t="n">
-        <v>60.66</v>
+        <v>55.41</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2970168612191958</v>
+        <v>0.5659254619480113</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1792452830188679</v>
+        <v>0.1642798928862498</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1168192986374805</v>
+        <v>0.05141415203448638</v>
       </c>
       <c r="L14" t="n">
-        <v>1.541942043721403</v>
+        <v>1.242655303879793</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.5272188957110689</v>
+        <v>-0.247240765978513</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.7465522643119413</v>
+        <v>-0.7844155889869133</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.9324854055161708</v>
+        <v>-1.288917322550906</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1880680503913267</v>
+        <v>0.09435067781029649</v>
       </c>
       <c r="Q14" t="n">
         <v>0.14</v>
@@ -2109,7 +2109,7 @@
         <v>2.4e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="T14" t="n">
         <v>6e-05</v>
@@ -2121,55 +2121,55 @@
         <v>0.3831417624521073</v>
       </c>
       <c r="W14" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2290687206161849</v>
+        <v>0.3615084525357607</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.2143562262022282</v>
+        <v>0.1989846284022</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2400183570445159</v>
+        <v>0.1122074346030289</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.6280153224971529</v>
+        <v>0.5736618697587741</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.942119860342244e-05</v>
+        <v>0.0001132190581070387</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.05817195200876188</v>
+        <v>0.05331511035622356</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.09603151757375113</v>
+        <v>0.04226509748154895</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.03706284232732759</v>
+        <v>0.02986904584543228</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.5272188957110689</v>
+        <v>-0.247240765978513</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.7465522643119413</v>
+        <v>-0.7844155889869133</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.9324854055161708</v>
+        <v>-1.288917322550906</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1880680503913267</v>
+        <v>0.09435067781029649</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.2834457195962741</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.3007998270644183</v>
+        <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="15">
@@ -2177,118 +2177,118 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0.15</v>
       </c>
       <c r="E15" t="n">
-        <v>46.8</v>
+        <v>80.73</v>
       </c>
       <c r="F15" t="n">
-        <v>26.03</v>
+        <v>37.86</v>
       </c>
       <c r="G15" t="n">
-        <v>9.59</v>
+        <v>25.53</v>
       </c>
       <c r="H15" t="n">
-        <v>50.93</v>
+        <v>86.84999999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8796992481203006</v>
+        <v>8.378827192527247</v>
       </c>
       <c r="J15" t="n">
-        <v>0.35189941868325</v>
+        <v>1.21853878339234</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1060723371308484</v>
+        <v>0.6856452262656103</v>
       </c>
       <c r="L15" t="n">
-        <v>1.037905033625433</v>
+        <v>13.20912547528516</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0556657792209242</v>
+        <v>0.9231832334919453</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.4535814505926722</v>
+        <v>0.08583935637280346</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.9743978620727265</v>
+        <v>-0.1639005433751378</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01615761819526265</v>
+        <v>1.120874065621322</v>
       </c>
       <c r="Q15" t="n">
         <v>0.06</v>
       </c>
       <c r="R15" t="n">
-        <v>2.4e-05</v>
+        <v>5.6e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.00014</v>
+        <v>6e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00014</v>
+        <v>6e-05</v>
       </c>
       <c r="U15" t="n">
-        <v>2.52</v>
+        <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.7662835249042146</v>
       </c>
       <c r="W15" t="n">
         <v>0.15</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4681404421326398</v>
+        <v>0.8075422626788037</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3670850373713158</v>
+        <v>0.5339162318431815</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2200550711335475</v>
+        <v>0.5858191831115191</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5272802567553577</v>
+        <v>0.8991614038720364</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0001759926474182923</v>
+        <v>0.001676268319001213</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1142048245330864</v>
+        <v>0.3954624547684902</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.08719695826012891</v>
+        <v>0.5636359091644056</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.02494757229601127</v>
+        <v>0.3175007366624701</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.0556657792209242</v>
+        <v>0.9231832334919453</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.4535814505926722</v>
+        <v>0.08583935637280346</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.9743978620727265</v>
+        <v>-0.1639005433751378</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.01615761819526265</v>
+        <v>1.120874065621322</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.2834457195962741</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.3217682663207957</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="16">
@@ -2296,55 +2296,55 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E16" t="n">
-        <v>93.95999999999999</v>
+        <v>41.54</v>
       </c>
       <c r="F16" t="n">
-        <v>51.9</v>
+        <v>17.41</v>
       </c>
       <c r="G16" t="n">
-        <v>32</v>
+        <v>9.01</v>
       </c>
       <c r="H16" t="n">
-        <v>95.48</v>
+        <v>70.36</v>
       </c>
       <c r="I16" t="n">
-        <v>15.55629139072846</v>
+        <v>1.421142661648991</v>
       </c>
       <c r="J16" t="n">
-        <v>1.079002079002079</v>
+        <v>0.4216006780481898</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.1980437410704473</v>
       </c>
       <c r="L16" t="n">
-        <v>21.12389380530976</v>
+        <v>4.747638326585695</v>
       </c>
       <c r="M16" t="n">
-        <v>1.191906069484436</v>
+        <v>0.1526376768416438</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03302228147462604</v>
+        <v>-0.3750986993316803</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3273589343863303</v>
+        <v>-0.7032388783872817</v>
       </c>
       <c r="P16" t="n">
-        <v>1.324773975523335</v>
+        <v>0.6764776271421142</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="R16" t="n">
-        <v>5.6e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="S16" t="n">
         <v>6e-05</v>
@@ -2353,61 +2353,61 @@
         <v>6e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.7662835249042146</v>
       </c>
       <c r="W16" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9398819645893768</v>
+        <v>0.4155246573972192</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.731913693414187</v>
+        <v>0.2455224933013679</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.7342817806333181</v>
+        <v>0.2067462138595686</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.9885081271353142</v>
+        <v>0.728439797080443</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.003112191935726527</v>
+        <v>0.0002843138264777522</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3501774557183527</v>
+        <v>0.1368255498678822</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3868479173795377</v>
+        <v>0.1628022186642043</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.5077438212631443</v>
+        <v>0.1141164620563492</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.191906069484436</v>
+        <v>0.1526376768416438</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.03302228147462604</v>
+        <v>-0.3750986993316803</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.3273589343863303</v>
+        <v>-0.7032388783872817</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.324773975523335</v>
+        <v>0.6764776271421142</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.3390012751518294</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.3007998270644183</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.3174603174603174</v>
       </c>
     </row>
     <row r="17">
@@ -2415,118 +2415,118 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.51</v>
+        <v>3.53</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E17" t="n">
-        <v>36.14</v>
+        <v>92.92</v>
       </c>
       <c r="F17" t="n">
-        <v>14.11</v>
+        <v>60.64</v>
       </c>
       <c r="G17" t="n">
-        <v>4.89</v>
+        <v>37.82</v>
       </c>
       <c r="H17" t="n">
-        <v>55.41</v>
+        <v>94.55</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5659254619480113</v>
+        <v>26.24858757062147</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1642798928862498</v>
+        <v>3.08130081300813</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05141415203448638</v>
+        <v>1.21646831778707</v>
       </c>
       <c r="L17" t="n">
-        <v>1.242655303879793</v>
+        <v>34.697247706422</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.247240765978513</v>
+        <v>1.41910593910241</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.7844155889869133</v>
+        <v>0.4887340985286744</v>
       </c>
       <c r="O17" t="n">
-        <v>-1.288917322550906</v>
+        <v>0.08510080246582911</v>
       </c>
       <c r="P17" t="n">
-        <v>0.09435067781029649</v>
+        <v>1.540295026568397</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="R17" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="S17" t="n">
+        <v>6e-05</v>
+      </c>
+      <c r="T17" t="n">
         <v>0.00014</v>
       </c>
-      <c r="T17" t="n">
-        <v>6e-05</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.51</v>
+        <v>3.53</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.7662835249042146</v>
       </c>
       <c r="W17" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="X17" t="n">
-        <v>0.3615084525357607</v>
+        <v>0.929478843653096</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1989846284022</v>
+        <v>0.8551685234804682</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1122074346030289</v>
+        <v>0.8678292794860027</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5736618697587741</v>
+        <v>0.9788798012216585</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0001132190581070387</v>
+        <v>0.005251292901995092</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.05331511035622356</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.04226509748154895</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.02986904584543228</v>
+        <v>0.8339993232376619</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.247240765978513</v>
+        <v>1.41910593910241</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.7844155889869133</v>
+        <v>0.4887340985286744</v>
       </c>
       <c r="AH17" t="n">
-        <v>-1.288917322550906</v>
+        <v>0.08510080246582911</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.09435067781029649</v>
+        <v>1.540295026568397</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.2834457195962741</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.3217682663207957</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="18">
@@ -2534,118 +2534,118 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E18" t="n">
-        <v>80.73</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>37.86</v>
+        <v>22.06</v>
       </c>
       <c r="G18" t="n">
-        <v>25.53</v>
+        <v>17.54</v>
       </c>
       <c r="H18" t="n">
-        <v>86.84999999999999</v>
+        <v>62.68</v>
       </c>
       <c r="I18" t="n">
-        <v>8.378827192527247</v>
+        <v>5.104795737122556</v>
       </c>
       <c r="J18" t="n">
-        <v>1.21853878339234</v>
+        <v>0.5660764690787785</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6856452262656103</v>
+        <v>0.4254183846713557</v>
       </c>
       <c r="L18" t="n">
-        <v>13.20912547528516</v>
+        <v>3.359056806002144</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9231832334919453</v>
+        <v>0.7079783689468605</v>
       </c>
       <c r="N18" t="n">
-        <v>0.08583935637280346</v>
+        <v>-0.2471248976885186</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1639005433751378</v>
+        <v>-0.3711837457713368</v>
       </c>
       <c r="P18" t="n">
-        <v>1.120874065621322</v>
+        <v>0.5262173483860714</v>
       </c>
       <c r="Q18" t="n">
         <v>0.06</v>
       </c>
       <c r="R18" t="n">
-        <v>5.6e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="S18" t="n">
         <v>6e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="U18" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="V18" t="n">
         <v>0.7662835249042146</v>
       </c>
       <c r="W18" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="X18" t="n">
-        <v>0.8075422626788037</v>
+        <v>0.7187156146844053</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.5339162318431815</v>
+        <v>0.3110985756592864</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5858191831115191</v>
+        <v>0.4024782010096374</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.8991614038720364</v>
+        <v>0.6489284605031577</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001676268319001213</v>
+        <v>0.001021265527082675</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3954624547684902</v>
+        <v>0.1837134714952236</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.5636359091644056</v>
+        <v>0.3497159592657972</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3175007366624701</v>
+        <v>0.08073986520850582</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.9231832334919453</v>
+        <v>0.7079783689468605</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.08583935637280346</v>
+        <v>-0.2471248976885186</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.1639005433751378</v>
+        <v>-0.3711837457713368</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.120874065621322</v>
+        <v>0.5262173483860714</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.3390012751518294</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.3007998270644183</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AM18" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="19">
@@ -2653,7 +2653,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -2662,55 +2662,55 @@
         <v>0.35</v>
       </c>
       <c r="E19" t="n">
-        <v>41.54</v>
+        <v>99.41</v>
       </c>
       <c r="F19" t="n">
-        <v>17.41</v>
+        <v>55.01</v>
       </c>
       <c r="G19" t="n">
-        <v>9.01</v>
+        <v>31.6</v>
       </c>
       <c r="H19" t="n">
-        <v>70.36</v>
+        <v>92.97</v>
       </c>
       <c r="I19" t="n">
-        <v>1.421142661648991</v>
+        <v>336.9830508474557</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4216006780481898</v>
+        <v>2.445432318292954</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1980437410704473</v>
+        <v>0.9239766081871345</v>
       </c>
       <c r="L19" t="n">
-        <v>4.747638326585695</v>
+        <v>26.44950213371266</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1526376768416438</v>
+        <v>2.527608057819306</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.3750986993316803</v>
+        <v>0.3883556474481802</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.7032388783872817</v>
+        <v>-0.03433902343773124</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6764776271421142</v>
+        <v>1.422417501603103</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="R19" t="n">
         <v>2.4e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="T19" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="U19" t="n">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="V19" t="n">
         <v>0.7662835249042146</v>
@@ -2719,52 +2719,52 @@
         <v>0.35</v>
       </c>
       <c r="X19" t="n">
-        <v>0.4155246573972192</v>
+        <v>0.9943983194958488</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2455224933013679</v>
+        <v>0.7757721054858271</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.2067462138595686</v>
+        <v>0.7251032583754016</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.728439797080443</v>
+        <v>0.9625220002070607</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.0002843138264777522</v>
+        <v>0.0674168352200597</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1368255498678822</v>
+        <v>0.7936363460423042</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.1628022186642043</v>
+        <v>0.7595566564922794</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.1141164620563492</v>
+        <v>0.6357526414236784</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.1526376768416438</v>
+        <v>2.527608057819306</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.3750986993316803</v>
+        <v>0.3883556474481802</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.7032388783872817</v>
+        <v>-0.03433902343773124</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.6764776271421142</v>
+        <v>1.422417501603103</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.2283950617283951</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.2834457195962741</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.3007998270644183</v>
+        <v>1</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.2316901408450702</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="20">
@@ -2772,118 +2772,118 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.53</v>
+        <v>2.51</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0.35</v>
       </c>
       <c r="E20" t="n">
-        <v>92.92</v>
+        <v>79.67</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64</v>
+        <v>16.39</v>
       </c>
       <c r="G20" t="n">
-        <v>37.82</v>
+        <v>13.15</v>
       </c>
       <c r="H20" t="n">
-        <v>94.55</v>
+        <v>60.82</v>
       </c>
       <c r="I20" t="n">
-        <v>26.24858757062147</v>
+        <v>3.918839153959666</v>
       </c>
       <c r="J20" t="n">
-        <v>3.08130081300813</v>
+        <v>0.1960291831120679</v>
       </c>
       <c r="K20" t="n">
-        <v>1.21646831778707</v>
+        <v>0.1514104778353483</v>
       </c>
       <c r="L20" t="n">
-        <v>34.697247706422</v>
+        <v>1.552322613578356</v>
       </c>
       <c r="M20" t="n">
-        <v>1.41910593910241</v>
+        <v>0.5931574385275287</v>
       </c>
       <c r="N20" t="n">
-        <v>0.4887340985286744</v>
+        <v>-0.7076792698624675</v>
       </c>
       <c r="O20" t="n">
-        <v>0.08510080246582911</v>
+        <v>-0.8198440699573407</v>
       </c>
       <c r="P20" t="n">
-        <v>1.540295026568397</v>
+        <v>0.1909819841493958</v>
       </c>
       <c r="Q20" t="n">
         <v>0.06</v>
       </c>
       <c r="R20" t="n">
-        <v>2.4e-05</v>
+        <v>5.6e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="T20" t="n">
         <v>0.00014</v>
       </c>
       <c r="U20" t="n">
-        <v>3.53</v>
+        <v>2.51</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7662835249042146</v>
+        <v>0.3831417624521073</v>
       </c>
       <c r="W20" t="n">
         <v>0.35</v>
       </c>
       <c r="X20" t="n">
-        <v>0.929478843653096</v>
+        <v>0.7969390817245173</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8551685234804682</v>
+        <v>0.2311380623325342</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.8678292794860027</v>
+        <v>0.3017439192290042</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9788798012216585</v>
+        <v>0.6296718086758464</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.005251292901995092</v>
+        <v>0.0007840030317014733</v>
       </c>
       <c r="AC20" t="n">
+        <v>0.06361896971710912</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1244672595425959</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.03731235457420007</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.5931574385275287</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-0.7076792698624675</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-0.8198440699573407</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1909819841493958</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="AK20" t="n">
         <v>1</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AL20" t="n">
         <v>1</v>
       </c>
-      <c r="AE20" t="n">
-        <v>0.8339993232376619</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1.41910593910241</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0.4887340985286744</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.08510080246582911</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1.540295026568397</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>-0.2160493827160495</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>-0.2834457195962741</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>-0.3007998270644183</v>
-      </c>
       <c r="AM20" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.7407407407407406</v>
       </c>
     </row>
     <row r="21">
@@ -2891,118 +2891,118 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.6</v>
+        <v>4.51</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D21" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>71.84999999999999</v>
+        <v>99.97</v>
       </c>
       <c r="F21" t="n">
-        <v>22.06</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>17.54</v>
+        <v>6.79</v>
       </c>
       <c r="H21" t="n">
-        <v>62.68</v>
+        <v>55.23</v>
       </c>
       <c r="I21" t="n">
-        <v>5.104795737122556</v>
+        <v>4998.499999999811</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5660764690787785</v>
+        <v>0.1661112962345885</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4254183846713557</v>
+        <v>0.1092693916961699</v>
       </c>
       <c r="L21" t="n">
-        <v>3.359056806002144</v>
+        <v>1.850457895912441</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7079783689468605</v>
+        <v>3.69883969644427</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.2471248976885186</v>
+        <v>-0.7796008327771781</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.3711837457713368</v>
+        <v>-0.9615014746384539</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5262173483860714</v>
+        <v>0.2672792078959133</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="R21" t="n">
-        <v>2.4e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="S21" t="n">
-        <v>6e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="T21" t="n">
-        <v>0.00014</v>
+        <v>0.0001</v>
       </c>
       <c r="U21" t="n">
-        <v>2.6</v>
+        <v>4.51</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7662835249042146</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="W21" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7187156146844053</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3110985756592864</v>
+        <v>0.1406007615286984</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.4024782010096374</v>
+        <v>0.1558054153281322</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.6489284605031577</v>
+        <v>0.571798322807744</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.001021265527082675</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.1837134714952236</v>
+        <v>0.05390947080964217</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.3497159592657972</v>
+        <v>0.08982510279835863</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.08073986520850582</v>
+        <v>0.04447847408326635</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.7079783689468605</v>
+        <v>3.69883969644427</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.2471248976885186</v>
+        <v>-0.7796008327771781</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.3711837457713368</v>
+        <v>-0.9615014746384539</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.5262173483860714</v>
+        <v>0.2672792078959133</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.2834457195962741</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.3007998270644183</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="22">
@@ -3010,118 +3010,118 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E22" t="n">
-        <v>99.41</v>
+        <v>49.5</v>
       </c>
       <c r="F22" t="n">
-        <v>55.01</v>
+        <v>19.05</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6</v>
+        <v>4.86</v>
       </c>
       <c r="H22" t="n">
-        <v>92.97</v>
+        <v>58.04</v>
       </c>
       <c r="I22" t="n">
-        <v>336.9830508474557</v>
+        <v>1.47029702970297</v>
       </c>
       <c r="J22" t="n">
-        <v>2.445432318292954</v>
+        <v>0.3529956763434219</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9239766081871345</v>
+        <v>0.07662392264031953</v>
       </c>
       <c r="L22" t="n">
-        <v>26.44950213371266</v>
+        <v>2.074833174451859</v>
       </c>
       <c r="M22" t="n">
-        <v>2.527608057819306</v>
+        <v>0.1674050798705886</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3883556474481802</v>
+        <v>-0.4522306140220732</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03433902343773124</v>
+        <v>-1.115635618765908</v>
       </c>
       <c r="P22" t="n">
-        <v>1.422417501603103</v>
+        <v>0.3169831832998593</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="R22" t="n">
-        <v>2.4e-05</v>
+        <v>4.59e-06</v>
       </c>
       <c r="S22" t="n">
-        <v>0.00014</v>
+        <v>0.0001</v>
       </c>
       <c r="T22" t="n">
-        <v>0.00014</v>
+        <v>0.0001</v>
       </c>
       <c r="U22" t="n">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7662835249042146</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="W22" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9943983194958488</v>
+        <v>0.495148544563369</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7757721054858271</v>
+        <v>0.2686504019179242</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.7251032583754016</v>
+        <v>0.1115190454336852</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.9625220002070607</v>
+        <v>0.6008903613210477</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0674168352200597</v>
+        <v>0.0002941476502356759</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.7936363460423042</v>
+        <v>0.1145606020850683</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.7595566564922794</v>
+        <v>0.06298883540157414</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.6357526414236784</v>
+        <v>0.04987166353842021</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.527608057819306</v>
+        <v>0.1674050798705886</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3883556474481802</v>
+        <v>-0.4522306140220732</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.03433902343773124</v>
+        <v>-1.115635618765908</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.422417501603103</v>
+        <v>0.3169831832998593</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AK22" t="n">
-        <v>-0.2834457195962741</v>
+        <v>0.08196428571428571</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.3217682663207957</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="23">
@@ -3129,118 +3129,118 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.51</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D23" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E23" t="n">
-        <v>79.67</v>
+        <v>24.97</v>
       </c>
       <c r="F23" t="n">
-        <v>16.39</v>
+        <v>6.33</v>
       </c>
       <c r="G23" t="n">
-        <v>13.15</v>
+        <v>7.81</v>
       </c>
       <c r="H23" t="n">
-        <v>60.82</v>
+        <v>47.13</v>
       </c>
       <c r="I23" t="n">
-        <v>3.918839153959666</v>
+        <v>0.4992003198720512</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1960291831120679</v>
+        <v>0.1013664994128323</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1514104778353483</v>
+        <v>0.1270745200130166</v>
       </c>
       <c r="L23" t="n">
-        <v>1.552322613578356</v>
+        <v>1.337147720824664</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5931574385275287</v>
+        <v>-0.301725145043136</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.7076792698624675</v>
+        <v>-0.9941055511570226</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.8198440699573407</v>
+        <v>-0.8959415220430591</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1909819841493958</v>
+        <v>0.1261793884102057</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="R23" t="n">
-        <v>5.6e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="S23" t="n">
-        <v>0.00014</v>
+        <v>0.0001</v>
       </c>
       <c r="T23" t="n">
-        <v>0.00014</v>
+        <v>1.15e-05</v>
       </c>
       <c r="U23" t="n">
-        <v>2.51</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3831417624521073</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="W23" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="X23" t="n">
-        <v>0.7969390817245173</v>
+        <v>0.2497749324797439</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2311380623325342</v>
+        <v>0.08926808630658582</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.3017439192290042</v>
+        <v>0.1792106470858192</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.6296718086758464</v>
+        <v>0.4879387100113883</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0007840030317014733</v>
+        <v>9.987002498190858e-05</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.06361896971710912</v>
+        <v>0.0328973071973044</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.1244672595425959</v>
+        <v>0.1044618410154597</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.03731235457420007</v>
+        <v>0.03214030990792815</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.5931574385275287</v>
+        <v>-0.301725145043136</v>
       </c>
       <c r="AG23" t="n">
-        <v>-0.7076792698624675</v>
+        <v>-0.9941055511570226</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.8198440699573407</v>
+        <v>-0.8959415220430591</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.1909819841493958</v>
+        <v>0.1261793884102057</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-0.2160493827160495</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.3390012751518294</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.3217682663207957</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.2190140845070424</v>
+        <v>0.06084656084656084</v>
       </c>
     </row>
     <row r="24">
@@ -3248,118 +3248,118 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.5</v>
+        <v>3.06</v>
       </c>
       <c r="C24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H24" t="n">
+        <v>86.34</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5804438280166435</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2049329393043873</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.03233220962304627</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9.480966325036606</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.2362398023901503</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.6883882309184423</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-1.490364614154164</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.9768526040304164</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4e-05</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.000189</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.574712643678161</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.2790837251175353</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.1695106472993936</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.04841670491050941</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.8938813541774511</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.0001161236026841383</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.06650857924654259</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.02657875190852746</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.2278889543523099</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-0.2362398023901503</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.6883882309184423</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-1.490364614154164</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.9768526040304164</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.7142857142857144</v>
+      </c>
+      <c r="AM24" t="n">
         <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E24" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="F24" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="H24" t="n">
-        <v>24.51</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2068549360366884</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.08495171964847564</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.02574623038260334</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.3246787653993907</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-0.6843341113750956</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-1.07082782543196</v>
-      </c>
-      <c r="O24" t="n">
-        <v>-1.5892863489093</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-0.488546114119406</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.4e-05</v>
-      </c>
-      <c r="S24" t="n">
-        <v>6e-05</v>
-      </c>
-      <c r="T24" t="n">
-        <v>6e-05</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.3831417624521073</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.1714514354306292</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.1104216612607531</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.05759522716842588</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.2537529764986023</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>4.138340222800765e-05</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.0275700831576847</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.02116473565825325</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.007804131120250593</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>-0.6843341113750956</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>-1.07082782543196</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>-1.5892863489093</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>-0.488546114119406</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>-0.2160493827160495</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>-0.2834457195962741</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>-0.3007998270644183</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>-0.2316901408450702</v>
       </c>
     </row>
     <row r="25">
@@ -3367,52 +3367,52 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.51</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
         <v>1.5</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97</v>
+        <v>64.2</v>
       </c>
       <c r="F25" t="n">
-        <v>9.970000000000001</v>
+        <v>14.47</v>
       </c>
       <c r="G25" t="n">
-        <v>6.79</v>
+        <v>12.4</v>
       </c>
       <c r="H25" t="n">
-        <v>55.23</v>
+        <v>53.51</v>
       </c>
       <c r="I25" t="n">
-        <v>4998.499999999811</v>
+        <v>2.689944134078213</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1661112962345885</v>
+        <v>0.2537706068046299</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1092693916961699</v>
+        <v>0.2123287671232877</v>
       </c>
       <c r="L25" t="n">
-        <v>1.850457895912441</v>
+        <v>1.726500322650032</v>
       </c>
       <c r="M25" t="n">
-        <v>3.69883969644427</v>
+        <v>0.4297432604806602</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.7796008327771781</v>
+        <v>-0.5955586818544037</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.9615014746384539</v>
+        <v>-0.6729911619501644</v>
       </c>
       <c r="P25" t="n">
-        <v>0.2672792078959133</v>
+        <v>0.2371666638468489</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="R25" t="n">
         <v>4e-05</v>
@@ -3424,61 +3424,61 @@
         <v>0.0001</v>
       </c>
       <c r="U25" t="n">
-        <v>4.51</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0.574712643678161</v>
       </c>
       <c r="W25" t="n">
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0.6421926577973393</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1406007615286984</v>
+        <v>0.2040614863912001</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.1558054153281322</v>
+        <v>0.2845341899954107</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.571798322807744</v>
+        <v>0.5539910963867895</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0.0005381502718972321</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.05390947080964217</v>
+        <v>0.08235827080994586</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.08982510279835863</v>
+        <v>0.1745452503929935</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.04447847408326635</v>
+        <v>0.0414989717006639</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.69883969644427</v>
+        <v>0.4297432604806602</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.7796008327771781</v>
+        <v>-0.5955586818544037</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.9615014746384539</v>
+        <v>-0.6729911619501644</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.2672792078959133</v>
+        <v>0.2371666638468489</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.4938271604938273</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.0277777777777777</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.01048421962818878</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM25" t="n">
-        <v>-0.006338028169013857</v>
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="26">
@@ -3486,52 +3486,52 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="C26" t="n">
-        <v>1.5</v>
+        <v>2.61</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>21.32</v>
+        <v>42.02</v>
       </c>
       <c r="F26" t="n">
-        <v>5.24</v>
+        <v>10.1</v>
       </c>
       <c r="G26" t="n">
-        <v>5.69</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>34.27</v>
+        <v>33.48</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4064565327910523</v>
+        <v>1.891552259399793</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08294639088222878</v>
+        <v>0.2932258064516128</v>
       </c>
       <c r="K26" t="n">
-        <v>0.09049941681688051</v>
+        <v>0.2727037773359841</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7820629849383844</v>
+        <v>1.313631990378833</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.3909858918370833</v>
+        <v>0.2768183443892361</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.08120250601132</v>
+        <v>-0.5327978106123054</v>
       </c>
       <c r="O26" t="n">
-        <v>-1.043354219402828</v>
+        <v>-0.5643088464191597</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.1067582687948195</v>
+        <v>0.1184737161120216</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="R26" t="n">
         <v>4e-05</v>
@@ -3543,61 +3543,61 @@
         <v>0.0001</v>
       </c>
       <c r="U26" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="V26" t="n">
-        <v>0.574712643678161</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>0.25</v>
       </c>
       <c r="X26" t="n">
-        <v>0.2132639791937581</v>
+        <v>0.4203260978293488</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07389648850655761</v>
+        <v>0.1424340713580595</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.1305644791188619</v>
+        <v>0.2170720513997247</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3547986333989026</v>
+        <v>0.3466197328916036</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.131570126859411e-05</v>
+        <v>0.0003784239790736951</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0269192772520162</v>
+        <v>0.09516299259511445</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.07439521070430499</v>
+        <v>0.2241766376884121</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01879803279172248</v>
+        <v>0.0315750747791017</v>
       </c>
       <c r="AF26" t="n">
-        <v>-0.3909858918370833</v>
+        <v>0.2768183443892361</v>
       </c>
       <c r="AG26" t="n">
-        <v>-1.08120250601132</v>
+        <v>-0.5327978106123054</v>
       </c>
       <c r="AH26" t="n">
-        <v>-1.043354219402828</v>
+        <v>-0.5643088464191597</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.1067582687948195</v>
+        <v>0.1184737161120216</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.5061728395061728</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.0277777777777777</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.01048421962818878</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM26" t="n">
-        <v>-0.006338028169013857</v>
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="27">
@@ -3605,7 +3605,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.04</v>
+        <v>4.11</v>
       </c>
       <c r="C27" t="n">
         <v>1.5</v>
@@ -3614,46 +3614,46 @@
         <v>0.25</v>
       </c>
       <c r="E27" t="n">
-        <v>49.5</v>
+        <v>70.14</v>
       </c>
       <c r="F27" t="n">
-        <v>19.05</v>
+        <v>33.91</v>
       </c>
       <c r="G27" t="n">
-        <v>4.86</v>
+        <v>21.92</v>
       </c>
       <c r="H27" t="n">
-        <v>58.04</v>
+        <v>86.33</v>
       </c>
       <c r="I27" t="n">
-        <v>1.47029702970297</v>
+        <v>3.523442732752847</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3529956763434219</v>
+        <v>0.7696323195642305</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07662392264031953</v>
+        <v>0.4211065573770492</v>
       </c>
       <c r="L27" t="n">
-        <v>2.074833174451859</v>
+        <v>9.472933430870517</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1674050798705886</v>
+        <v>0.5469672172121584</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.4522306140220732</v>
+        <v>-0.1137167030366626</v>
       </c>
       <c r="O27" t="n">
-        <v>-1.115635618765908</v>
+        <v>-0.3756079957906227</v>
       </c>
       <c r="P27" t="n">
-        <v>0.3169831832998593</v>
+        <v>0.9764844853990166</v>
       </c>
       <c r="Q27" t="n">
         <v>0.1</v>
       </c>
       <c r="R27" t="n">
-        <v>4.59e-06</v>
+        <v>4e-05</v>
       </c>
       <c r="S27" t="n">
         <v>0.0001</v>
@@ -3662,7 +3662,7 @@
         <v>0.0001</v>
       </c>
       <c r="U27" t="n">
-        <v>3.04</v>
+        <v>4.11</v>
       </c>
       <c r="V27" t="n">
         <v>0.574712643678161</v>
@@ -3671,52 +3671,52 @@
         <v>0.25</v>
       </c>
       <c r="X27" t="n">
-        <v>0.495148544563369</v>
+        <v>0.7016104831449435</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.2686504019179242</v>
+        <v>0.4782118177972077</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.1115190454336852</v>
+        <v>0.5029830197338229</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.6008903613210477</v>
+        <v>0.8937778237912827</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.0002941476502356759</v>
+        <v>0.0007049000165555626</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.1145606020850683</v>
+        <v>0.2497751327345656</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.06298883540157414</v>
+        <v>0.3461714137718788</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.04987166353842021</v>
+        <v>0.2276958719396977</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.1674050798705886</v>
+        <v>0.5469672172121584</v>
       </c>
       <c r="AG27" t="n">
-        <v>-0.4522306140220732</v>
+        <v>-0.1137167030366626</v>
       </c>
       <c r="AH27" t="n">
-        <v>-1.115635618765908</v>
+        <v>-0.3756079957906227</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.3169831832998593</v>
+        <v>0.9764844853990166</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.006172839506172803</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AK27" t="n">
-        <v>-0.6609987248481706</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.01048421962818878</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.006338028169013857</v>
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="28">
@@ -3724,7 +3724,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="C28" t="n">
         <v>1.5</v>
@@ -3733,40 +3733,40 @@
         <v>0.25</v>
       </c>
       <c r="E28" t="n">
-        <v>43.91</v>
+        <v>48.68</v>
       </c>
       <c r="F28" t="n">
-        <v>12.43</v>
+        <v>17.03</v>
       </c>
       <c r="G28" t="n">
-        <v>0.41</v>
+        <v>10.59</v>
       </c>
       <c r="H28" t="n">
-        <v>49.88</v>
+        <v>52.43</v>
       </c>
       <c r="I28" t="n">
-        <v>1.174273489035479</v>
+        <v>1.422837100545596</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2129153819801302</v>
+        <v>0.307882367120646</v>
       </c>
       <c r="K28" t="n">
-        <v>0.006175318807109148</v>
+        <v>0.1776646907504753</v>
       </c>
       <c r="L28" t="n">
-        <v>1.492817238627295</v>
+        <v>1.653247845280639</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06976925615055232</v>
+        <v>0.1531551809108177</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.6717929620103508</v>
+        <v>-0.5116151830730535</v>
       </c>
       <c r="O28" t="n">
-        <v>-2.209340616595541</v>
+        <v>-0.7503988757171266</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1740066415400739</v>
+        <v>0.2183379653495029</v>
       </c>
       <c r="Q28" t="n">
         <v>0.1</v>
@@ -3775,13 +3775,13 @@
         <v>4e-05</v>
       </c>
       <c r="S28" t="n">
-        <v>1.15e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="T28" t="n">
         <v>0.0001</v>
       </c>
       <c r="U28" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="V28" t="n">
         <v>0.574712643678161</v>
@@ -3790,52 +3790,52 @@
         <v>0.25</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4392317695308592</v>
+        <v>0.4869460838251475</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.1752926244535327</v>
+        <v>0.2401635876463123</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.009407985314364388</v>
+        <v>0.2430013767783387</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.516409566207682</v>
+        <v>0.5428098146806087</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0002349251753597125</v>
+        <v>0.0002846528159539162</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.06909918729170453</v>
+        <v>0.09991960727134422</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.005076432091830338</v>
+        <v>0.1460495831684896</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.03588205546638342</v>
+        <v>0.03973824079000297</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.06976925615055232</v>
+        <v>0.1531551809108177</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.6717929620103508</v>
+        <v>-0.5116151830730535</v>
       </c>
       <c r="AH28" t="n">
-        <v>-2.209340616595541</v>
+        <v>-0.7503988757171266</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.1740066415400739</v>
+        <v>0.2183379653495029</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.006172839506172803</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.0277777777777777</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL28" t="n">
-        <v>-0.6782317336792044</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM28" t="n">
-        <v>-0.006338028169013857</v>
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="29">
@@ -3843,7 +3843,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="C29" t="n">
         <v>1.5</v>
@@ -3852,40 +3852,40 @@
         <v>0.25</v>
       </c>
       <c r="E29" t="n">
-        <v>24.97</v>
+        <v>27.46</v>
       </c>
       <c r="F29" t="n">
-        <v>6.33</v>
+        <v>17.33</v>
       </c>
       <c r="G29" t="n">
-        <v>7.81</v>
+        <v>9.31</v>
       </c>
       <c r="H29" t="n">
-        <v>47.13</v>
+        <v>59.17</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4992003198720512</v>
+        <v>0.5678246484698098</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1013664994128323</v>
+        <v>0.3144429660094351</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1270745200130166</v>
+        <v>0.1539861065167053</v>
       </c>
       <c r="L29" t="n">
-        <v>1.337147720824664</v>
+        <v>2.173769287288759</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.301725145043136</v>
+        <v>-0.2457857592879979</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.9941055511570226</v>
+        <v>-0.5024581158581733</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.8959415220430591</v>
+        <v>-0.8125184618604556</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1261793884102057</v>
+        <v>0.3372134484096961</v>
       </c>
       <c r="Q29" t="n">
         <v>0.1</v>
@@ -3897,10 +3897,10 @@
         <v>0.0001</v>
       </c>
       <c r="T29" t="n">
-        <v>1.15e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>3.14</v>
       </c>
       <c r="V29" t="n">
         <v>0.574712643678161</v>
@@ -3909,1004 +3909,52 @@
         <v>0.25</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2497749324797439</v>
+        <v>0.2746824047214164</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.08926808630658582</v>
+        <v>0.2443943026371457</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.1792106470858192</v>
+        <v>0.213630105553006</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.4879387100113883</v>
+        <v>0.6125892949580702</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.987002498190858e-05</v>
+        <v>0.0001135990093967853</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0328973071973044</v>
+        <v>0.1020487726099222</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.1044618410154597</v>
+        <v>0.1265845597991636</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.03214030990792815</v>
+        <v>0.05224973836002824</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.301725145043136</v>
+        <v>-0.2457857592879979</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.9941055511570226</v>
+        <v>-0.5024581158581733</v>
       </c>
       <c r="AH29" t="n">
-        <v>-0.8959415220430591</v>
+        <v>-0.8125184618604556</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.1261793884102057</v>
+        <v>0.3372134484096961</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.006172839506172803</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.0277777777777777</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AL29" t="n">
-        <v>0.01048421962818878</v>
+        <v>0.7142857142857144</v>
       </c>
       <c r="AM29" t="n">
-        <v>-0.5049295774647885</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E30" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F30" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="H30" t="n">
-        <v>86.34</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.5804438280166435</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.2049329393043873</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.03233220962304627</v>
-      </c>
-      <c r="L30" t="n">
-        <v>9.480966325036606</v>
-      </c>
-      <c r="M30" t="n">
-        <v>-0.2362398023901503</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-0.6883882309184423</v>
-      </c>
-      <c r="O30" t="n">
-        <v>-1.490364614154164</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.9768526040304164</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.000189</v>
-      </c>
-      <c r="U30" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.574712643678161</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.2790837251175353</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.1695106472993936</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.04841670491050941</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.8938813541774511</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.0001161236026841383</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0.06650857924654259</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.02657875190852746</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0.2278889543523099</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>-0.2362398023901503</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>-0.6883882309184423</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>-1.490364614154164</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0.9768526040304164</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0.4950704225352116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="G31" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>96.52</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.1099602876462381</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.08528852251109702</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2878426698450537</v>
-      </c>
-      <c r="L31" t="n">
-        <v>41.60344827586202</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-0.9587641327517181</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-1.069109408990476</v>
-      </c>
-      <c r="O31" t="n">
-        <v>-0.5408448257411692</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.619129328345848</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.574712643678161</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.06832049614884465</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.07587082216894656</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.3694355208811382</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.9992752872968216</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>2.199865712638636e-05</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0.02767938857220299</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.2366215918953654</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>-0.9587641327517181</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>-1.069109408990476</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>-0.5408448257411692</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>1.619129328345848</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>-0.006338028169013857</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E32" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="G32" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H32" t="n">
-        <v>53.51</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.689944134078213</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.2537706068046299</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.2123287671232877</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.726500322650032</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.4297432604806602</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-0.5955586818544037</v>
-      </c>
-      <c r="O32" t="n">
-        <v>-0.6729911619501644</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.2371666638468489</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="U32" t="n">
-        <v>3</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.574712643678161</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.6421926577973393</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.2040614863912001</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.2845341899954107</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0.5539910963867895</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0.0005381502718972321</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0.08235827080994586</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.1745452503929935</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0.0414989717006639</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0.4297432604806602</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>-0.5955586818544037</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>-0.6729911619501644</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0.2371666638468489</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>-0.006338028169013857</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E33" t="n">
-        <v>99.72</v>
-      </c>
-      <c r="F33" t="n">
-        <v>70.91</v>
-      </c>
-      <c r="G33" t="n">
-        <v>43.58</v>
-      </c>
-      <c r="H33" t="n">
-        <v>96.59</v>
-      </c>
-      <c r="I33" t="n">
-        <v>138.8957142857137</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.9506668958404948</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.3012442396313364</v>
-      </c>
-      <c r="L33" t="n">
-        <v>11.04695014662758</v>
-      </c>
-      <c r="M33" t="n">
-        <v>2.142688845516014</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-0.02197162884602282</v>
-      </c>
-      <c r="O33" t="n">
-        <v>-0.5210812488826114</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.043242394101414</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="U33" t="n">
-        <v>3</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.1494252873563219</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0.9974992497749324</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0.02778747910087406</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0.3085277788611632</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.2476383767884254</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0.2655296761311232</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2.142688845516014</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>-0.02197162884602282</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>-0.5210812488826114</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1.043242394101414</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>-0.006338028169013857</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E34" t="n">
-        <v>42.02</v>
-      </c>
-      <c r="F34" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>33.48</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.891552259399793</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.2932258064516128</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.2727037773359841</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.313631990378833</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.2768183443892361</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-0.5327978106123054</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-0.5643088464191597</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.1184737161120216</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="U34" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0.4203260978293488</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.1424340713580595</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0.2170720513997247</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0.3466197328916036</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.0003784239790736951</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0.09516299259511445</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.2241766376884121</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0.0315750747791017</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0.2768183443892361</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>-0.5327978106123054</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>-0.5643088464191597</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0.1184737161120216</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>-0.006338028169013857</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E35" t="n">
-        <v>70.14</v>
-      </c>
-      <c r="F35" t="n">
-        <v>33.91</v>
-      </c>
-      <c r="G35" t="n">
-        <v>21.92</v>
-      </c>
-      <c r="H35" t="n">
-        <v>86.33</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.523442732752847</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7696323195642305</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.4211065573770492</v>
-      </c>
-      <c r="L35" t="n">
-        <v>9.472933430870517</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.5469672172121584</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-0.1137167030366626</v>
-      </c>
-      <c r="O35" t="n">
-        <v>-0.3756079957906227</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.9764844853990166</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="U35" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.574712643678161</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.7016104831449435</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.4782118177972077</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0.5029830197338229</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0.8937778237912827</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0.0007049000165555626</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0.2497751327345656</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.3461714137718788</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.2276958719396977</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0.5469672172121584</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>-0.1137167030366626</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>-0.3756079957906227</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0.9764844853990166</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>-0.006338028169013857</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E36" t="n">
-        <v>48.68</v>
-      </c>
-      <c r="F36" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="G36" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="H36" t="n">
-        <v>52.43</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.422837100545596</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.307882367120646</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1776646907504753</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.653247845280639</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.1531551809108177</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-0.5116151830730535</v>
-      </c>
-      <c r="O36" t="n">
-        <v>-0.7503988757171266</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.2183379653495029</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="U36" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0.574712643678161</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.4869460838251475</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.2401635876463123</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0.2430013767783387</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0.5428098146806087</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0.0002846528159539162</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.09991960727134422</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.1460495831684896</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0.03973824079000297</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0.1531551809108177</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>-0.5116151830730535</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>-0.7503988757171266</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0.2183379653495029</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>-0.006338028169013857</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E37" t="n">
-        <v>27.46</v>
-      </c>
-      <c r="F37" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="G37" t="n">
-        <v>9.31</v>
-      </c>
-      <c r="H37" t="n">
-        <v>59.17</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.5678246484698098</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3144429660094351</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.1539861065167053</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.173769287288759</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-0.2457857592879979</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-0.5024581158581733</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-0.8125184618604556</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.3372134484096961</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4e-05</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="U37" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.574712643678161</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.2746824047214164</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.2443943026371457</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.213630105553006</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.6125892949580702</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.0001135990093967853</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.1020487726099222</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.1265845597991636</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0.05224973836002824</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>-0.2457857592879979</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>-0.5024581158581733</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>-0.8125184618604556</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0.3372134484096961</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0.006172839506172803</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0.0277777777777777</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0.01048421962818878</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>-0.006338028169013857</v>
+        <v>0.5291005291005291</v>
       </c>
     </row>
   </sheetData>
